--- a/LactateLog.xlsx
+++ b/LactateLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LT" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
   <si>
     <t xml:space="preserve">Rep 1</t>
   </si>
@@ -488,13 +488,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topRight" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.64"/>
@@ -1759,168 +1759,867 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN13" s="1" t="e">
+      <c r="A13" s="5" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN13" s="1" t="n">
         <f aca="false">AVERAGE(F13,I13,L13,O13,R13,U13,X13,AA13,AD13,AG13,AJ13,AM13,AP13,AS13,AV13,AY13,BB13,BE13,BH13,BK13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO13" s="1" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="BO13" s="1" t="n">
         <f aca="false">AVERAGE(G13,J13,M13,P13,S13,V13,Y13,AB13,AE13,AH13,AK13,AN13,AQ13,AT13,AW13,AZ13,BC13,BF13,BI13,BL13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP13" s="1" t="e">
+        <v>317.75</v>
+      </c>
+      <c r="BP13" s="1" t="n">
         <f aca="false">AVERAGE(H13,K13,N13,Q13,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,AX13,BA13,BD13,BG13,BJ13,BM13)</f>
-        <v>#DIV/0!</v>
+        <v>2.6</v>
       </c>
       <c r="BQ13" s="6" t="n">
         <f aca="false">MAX(H13,K13,N13,Q13,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,AX13,BA13,BD13,BG13,BJ13,BM13)</f>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN14" s="1" t="e">
+      <c r="A14" s="5" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BN14" s="1" t="n">
         <f aca="false">AVERAGE(F14,I14,L14,O14,R14,U14,X14,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AY14,BB14,BE14,BH14,BK14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO14" s="1" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="BO14" s="1" t="n">
         <f aca="false">AVERAGE(G14,J14,M14,P14,S14,V14,Y14,AB14,AE14,AH14,AK14,AN14,AQ14,AT14,AW14,AZ14,BC14,BF14,BI14,BL14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP14" s="1" t="e">
+        <v>317.125</v>
+      </c>
+      <c r="BP14" s="1" t="n">
         <f aca="false">AVERAGE(H14,K14,N14,Q14,T14,W14,Z14,AC14,AF14,AI14,AL14,AO14,AR14,AU14,AX14,BA14,BD14,BG14,BJ14,BM14)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="BQ14" s="6" t="n">
         <f aca="false">MAX(H14,K14,N14,Q14,T14,W14,Z14,AC14,AF14,AI14,AL14,AO14,AR14,AU14,AX14,BA14,BD14,BG14,BJ14,BM14)</f>
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN15" s="1" t="e">
+      <c r="A15" s="5" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BN15" s="1" t="n">
         <f aca="false">AVERAGE(F15,I15,L15,O15,R15,U15,X15,AA15,AD15,AG15,AJ15,AM15,AP15,AS15,AV15,AY15,BB15,BE15,BH15,BK15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO15" s="1" t="e">
+        <v>10.275</v>
+      </c>
+      <c r="BO15" s="1" t="n">
         <f aca="false">AVERAGE(G15,J15,M15,P15,S15,V15,Y15,AB15,AE15,AH15,AK15,AN15,AQ15,AT15,AW15,AZ15,BC15,BF15,BI15,BL15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP15" s="1" t="e">
+        <v>312.5</v>
+      </c>
+      <c r="BP15" s="1" t="n">
         <f aca="false">AVERAGE(H15,K15,N15,Q15,T15,W15,Z15,AC15,AF15,AI15,AL15,AO15,AR15,AU15,AX15,BA15,BD15,BG15,BJ15,BM15)</f>
-        <v>#DIV/0!</v>
+        <v>2.525</v>
       </c>
       <c r="BQ15" s="6" t="n">
         <f aca="false">MAX(H15,K15,N15,Q15,T15,W15,Z15,AC15,AF15,AI15,AL15,AO15,AR15,AU15,AX15,BA15,BD15,BG15,BJ15,BM15)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN16" s="1" t="e">
+      <c r="A16" s="5" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AO16" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AP16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AS16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AV16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AY16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ16" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="BA16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN16" s="1" t="n">
         <f aca="false">AVERAGE(F16,I16,L16,O16,R16,U16,X16,AA16,AD16,AG16,AJ16,AM16,AP16,AS16,AV16,AY16,BB16,BE16,BH16,BK16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO16" s="1" t="e">
+        <v>10.775</v>
+      </c>
+      <c r="BO16" s="1" t="n">
         <f aca="false">AVERAGE(G16,J16,M16,P16,S16,V16,Y16,AB16,AE16,AH16,AK16,AN16,AQ16,AT16,AW16,AZ16,BC16,BF16,BI16,BL16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP16" s="1" t="e">
+        <v>327.6875</v>
+      </c>
+      <c r="BP16" s="1" t="n">
         <f aca="false">AVERAGE(H16,K16,N16,Q16,T16,W16,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AX16,BA16,BD16,BG16,BJ16,BM16)</f>
-        <v>#DIV/0!</v>
+        <v>2.125</v>
       </c>
       <c r="BQ16" s="6" t="n">
         <f aca="false">MAX(H16,K16,N16,Q16,T16,W16,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AX16,BA16,BD16,BG16,BJ16,BM16)</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN17" s="1" t="e">
+      <c r="A17" s="5" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN17" s="1" t="n">
         <f aca="false">AVERAGE(F17,I17,L17,O17,R17,U17,X17,AA17,AD17,AG17,AJ17,AM17,AP17,AS17,AV17,AY17,BB17,BE17,BH17,BK17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO17" s="1" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="BO17" s="1" t="n">
         <f aca="false">AVERAGE(G17,J17,M17,P17,S17,V17,Y17,AB17,AE17,AH17,AK17,AN17,AQ17,AT17,AW17,AZ17,BC17,BF17,BI17,BL17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP17" s="1" t="e">
+        <v>309</v>
+      </c>
+      <c r="BP17" s="1" t="n">
         <f aca="false">AVERAGE(H17,K17,N17,Q17,T17,W17,Z17,AC17,AF17,AI17,AL17,AO17,AR17,AU17,AX17,BA17,BD17,BG17,BJ17,BM17)</f>
-        <v>#DIV/0!</v>
+        <v>1.75</v>
       </c>
       <c r="BQ17" s="6" t="n">
         <f aca="false">MAX(H17,K17,N17,Q17,T17,W17,Z17,AC17,AF17,AI17,AL17,AO17,AR17,AU17,AX17,BA17,BD17,BG17,BJ17,BM17)</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN18" s="1" t="e">
+      <c r="A18" s="5" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN18" s="1" t="n">
         <f aca="false">AVERAGE(F18,I18,L18,O18,R18,U18,X18,AA18,AD18,AG18,AJ18,AM18,AP18,AS18,AV18,AY18,BB18,BE18,BH18,BK18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO18" s="1" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="BO18" s="1" t="n">
         <f aca="false">AVERAGE(G18,J18,M18,P18,S18,V18,Y18,AB18,AE18,AH18,AK18,AN18,AQ18,AT18,AW18,AZ18,BC18,BF18,BI18,BL18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP18" s="1" t="e">
+        <v>316</v>
+      </c>
+      <c r="BP18" s="1" t="n">
         <f aca="false">AVERAGE(H18,K18,N18,Q18,T18,W18,Z18,AC18,AF18,AI18,AL18,AO18,AR18,AU18,AX18,BA18,BD18,BG18,BJ18,BM18)</f>
-        <v>#DIV/0!</v>
+        <v>2.55</v>
       </c>
       <c r="BQ18" s="6" t="n">
         <f aca="false">MAX(H18,K18,N18,Q18,T18,W18,Z18,AC18,AF18,AI18,AL18,AO18,AR18,AU18,AX18,BA18,BD18,BG18,BJ18,BM18)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN19" s="1" t="e">
+      <c r="A19" s="5" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AW19" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="BA19" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN19" s="1" t="n">
         <f aca="false">AVERAGE(F19,I19,L19,O19,R19,U19,X19,AA19,AD19,AG19,AJ19,AM19,AP19,AS19,AV19,AY19,BB19,BE19,BH19,BK19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO19" s="1" t="e">
+        <v>10.775</v>
+      </c>
+      <c r="BO19" s="1" t="n">
         <f aca="false">AVERAGE(G19,J19,M19,P19,S19,V19,Y19,AB19,AE19,AH19,AK19,AN19,AQ19,AT19,AW19,AZ19,BC19,BF19,BI19,BL19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP19" s="1" t="e">
+        <v>327.75</v>
+      </c>
+      <c r="BP19" s="1" t="n">
         <f aca="false">AVERAGE(H19,K19,N19,Q19,T19,W19,Z19,AC19,AF19,AI19,AL19,AO19,AR19,AU19,AX19,BA19,BD19,BG19,BJ19,BM19)</f>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
       <c r="BQ19" s="6" t="n">
         <f aca="false">MAX(H19,K19,N19,Q19,T19,W19,Z19,AC19,AF19,AI19,AL19,AO19,AR19,AU19,AX19,BA19,BD19,BG19,BJ19,BM19)</f>
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN20" s="1" t="e">
+      <c r="A20" s="5" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN20" s="1" t="n">
         <f aca="false">AVERAGE(F20,I20,L20,O20,R20,U20,X20,AA20,AD20,AG20,AJ20,AM20,AP20,AS20,AV20,AY20,BB20,BE20,BH20,BK20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO20" s="1" t="e">
+        <v>10.84</v>
+      </c>
+      <c r="BO20" s="1" t="n">
         <f aca="false">AVERAGE(G20,J20,M20,P20,S20,V20,Y20,AB20,AE20,AH20,AK20,AN20,AQ20,AT20,AW20,AZ20,BC20,BF20,BI20,BL20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP20" s="1" t="e">
+        <v>327.2</v>
+      </c>
+      <c r="BP20" s="1" t="n">
         <f aca="false">AVERAGE(H20,K20,N20,Q20,T20,W20,Z20,AC20,AF20,AI20,AL20,AO20,AR20,AU20,AX20,BA20,BD20,BG20,BJ20,BM20)</f>
-        <v>#DIV/0!</v>
+        <v>1.94</v>
       </c>
       <c r="BQ20" s="6" t="n">
         <f aca="false">MAX(H20,K20,N20,Q20,T20,W20,Z20,AC20,AF20,AI20,AL20,AO20,AR20,AU20,AX20,BA20,BD20,BG20,BJ20,BM20)</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BN21" s="1" t="e">
+      <c r="A21" s="5" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN21" s="1" t="n">
         <f aca="false">AVERAGE(F21,I21,L21,O21,R21,U21,X21,AA21,AD21,AG21,AJ21,AM21,AP21,AS21,AV21,AY21,BB21,BE21,BH21,BK21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO21" s="1" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="BO21" s="1" t="n">
         <f aca="false">AVERAGE(G21,J21,M21,P21,S21,V21,Y21,AB21,AE21,AH21,AK21,AN21,AQ21,AT21,AW21,AZ21,BC21,BF21,BI21,BL21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP21" s="1" t="e">
+        <v>298.875</v>
+      </c>
+      <c r="BP21" s="1" t="n">
         <f aca="false">AVERAGE(H21,K21,N21,Q21,T21,W21,Z21,AC21,AF21,AI21,AL21,AO21,AR21,AU21,AX21,BA21,BD21,BG21,BJ21,BM21)</f>
-        <v>#DIV/0!</v>
+        <v>3.15</v>
       </c>
       <c r="BQ21" s="6" t="n">
         <f aca="false">MAX(H21,K21,N21,Q21,T21,W21,Z21,AC21,AF21,AI21,AL21,AO21,AR21,AU21,AX21,BA21,BD21,BG21,BJ21,BM21)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="BN22" s="1" t="e">
         <f aca="false">AVERAGE(F22,I22,L22,O22,R22,U22,X22,AA22,AD22,AG22,AJ22,AM22,AP22,AS22,AV22,AY22,BB22,BE22,BH22,BK22)</f>
         <v>#DIV/0!</v>
@@ -1939,6 +2638,21 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="BN23" s="1" t="e">
         <f aca="false">AVERAGE(F23,I23,L23,O23,R23,U23,X23,AA23,AD23,AG23,AJ23,AM23,AP23,AS23,AV23,AY23,BB23,BE23,BH23,BK23)</f>
         <v>#DIV/0!</v>
@@ -1957,6 +2671,21 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="BN24" s="1" t="e">
         <f aca="false">AVERAGE(F24,I24,L24,O24,R24,U24,X24,AA24,AD24,AG24,AJ24,AM24,AP24,AS24,AV24,AY24,BB24,BE24,BH24,BK24)</f>
         <v>#DIV/0!</v>
@@ -1975,6 +2704,21 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="BN25" s="1" t="e">
         <f aca="false">AVERAGE(F25,I25,L25,O25,R25,U25,X25,AA25,AD25,AG25,AJ25,AM25,AP25,AS25,AV25,AY25,BB25,BE25,BH25,BK25)</f>
         <v>#DIV/0!</v>
@@ -2494,7 +3238,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2513,7 +3257,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.54"/>
   </cols>
@@ -2594,7 +3338,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2613,7 +3357,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.57"/>
   </cols>
@@ -2967,7 +3711,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2982,13 +3726,13 @@
   </sheetPr>
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,209 +3975,209 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">LT!A13</f>
-        <v>0</v>
+        <v>44717</v>
       </c>
       <c r="B12" s="10" t="n">
         <f aca="false">LT!D13</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="e">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">LT!BN13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="0" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">LT!BO13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="0" t="e">
+        <v>317.75</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">LT!BP13</f>
-        <v>#DIV/0!</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">LT!A14</f>
-        <v>0</v>
+        <v>44721</v>
       </c>
       <c r="B13" s="10" t="n">
         <f aca="false">LT!D14</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="e">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">LT!BN14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="0" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">LT!BO14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="0" t="e">
+        <v>317.125</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">LT!BP14</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <f aca="false">LT!A15</f>
-        <v>0</v>
+        <v>44726</v>
       </c>
       <c r="B14" s="10" t="n">
         <f aca="false">LT!D15</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="e">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">LT!BN15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="0" t="e">
+        <v>10.275</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">LT!BO15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="0" t="e">
+        <v>312.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">LT!BP15</f>
-        <v>#DIV/0!</v>
+        <v>2.525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">LT!A16</f>
-        <v>0</v>
+        <v>44729</v>
       </c>
       <c r="B15" s="10" t="n">
         <f aca="false">LT!D16</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">LT!BN16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="0" t="e">
+        <v>10.775</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">LT!BO16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="0" t="e">
+        <v>327.6875</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">LT!BP16</f>
-        <v>#DIV/0!</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">LT!A17</f>
-        <v>0</v>
+        <v>44736</v>
       </c>
       <c r="B16" s="10" t="n">
         <f aca="false">LT!D17</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="e">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <f aca="false">LT!BN17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="0" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">LT!BO17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="0" t="e">
+        <v>309</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">LT!BP17</f>
-        <v>#DIV/0!</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">LT!A18</f>
-        <v>0</v>
+        <v>44739</v>
       </c>
       <c r="B17" s="10" t="n">
         <f aca="false">LT!D18</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="e">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">LT!BN18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="0" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">LT!BO18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="0" t="e">
+        <v>316</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">LT!BP18</f>
-        <v>#DIV/0!</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">LT!A19</f>
-        <v>0</v>
+        <v>44743</v>
       </c>
       <c r="B18" s="10" t="n">
         <f aca="false">LT!D19</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <f aca="false">LT!BN19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="0" t="e">
+        <v>10.775</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">LT!BO19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="0" t="e">
+        <v>327.75</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">LT!BP19</f>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">LT!A20</f>
-        <v>0</v>
+        <v>44749</v>
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">LT!D20</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="e">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">LT!BN20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="0" t="e">
+        <v>10.84</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">LT!BO20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="0" t="e">
+        <v>327.2</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">LT!BP20</f>
-        <v>#DIV/0!</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">LT!A21</f>
-        <v>0</v>
+        <v>44752</v>
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">LT!D21</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="e">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <f aca="false">LT!BN21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="0" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <f aca="false">LT!BO21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="0" t="e">
+        <v>298.875</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <f aca="false">LT!BP21</f>
-        <v>#DIV/0!</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <f aca="false">LT!A22</f>
-        <v>0</v>
+        <v>44757</v>
       </c>
       <c r="B21" s="10" t="n">
         <f aca="false">LT!D22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="e">
         <f aca="false">LT!BN22</f>
@@ -3451,11 +4195,11 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <f aca="false">LT!A23</f>
-        <v>0</v>
+        <v>44774</v>
       </c>
       <c r="B22" s="10" t="n">
         <f aca="false">LT!D23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="e">
         <f aca="false">LT!BN23</f>
@@ -3473,11 +4217,11 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <f aca="false">LT!A24</f>
-        <v>0</v>
+        <v>44777</v>
       </c>
       <c r="B23" s="10" t="n">
         <f aca="false">LT!D24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="e">
         <f aca="false">LT!BN24</f>
@@ -3495,11 +4239,11 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <f aca="false">LT!A25</f>
-        <v>0</v>
+        <v>44784</v>
       </c>
       <c r="B24" s="10" t="n">
         <f aca="false">LT!D25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="e">
         <f aca="false">LT!BN25</f>
@@ -13989,7 +14733,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
